--- a/medicine/Enfance/Alain_Grousset/Alain_Grousset.xlsx
+++ b/medicine/Enfance/Alain_Grousset/Alain_Grousset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Grousset, né le 21 décembre 1956 à Guéret, est un auteur français de science-fiction. Il a beaucoup écrit pour la jeunesse et très souvent en collaboration avec d'autres écrivains sous des pseudonymes variés.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Guéret, dans la Creuse, Alain Grousset a grandi à Orléans et fait des études en sciences naturelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Guéret, dans la Creuse, Alain Grousset a grandi à Orléans et fait des études en sciences naturelles.
 Passionné par la bande dessinée et surtout la science-fiction, il est à l'origine de magazines d'amateurs comme Divergent 54 et Fantascienza qui obtient le prix spécial de la Science-Fiction française en 1980. Il devient lecteur professionnel[Quoi ?] pendant deux ans pour le Fleuve Noir Anticipation puis critique science-fiction dans Les Nouvelles d'Orléans et dans le magazine Lire de Bernard Pivot.
 Il rencontre ensuite Danielle Martinigol avec qui il écrit de nombreuses nouvelles pour des revues aussi différentes que Fluide glacial, La Vie du Rail, Fiction, Le Lézard, Poivre noir… Son premier livre est publié en 1991 chez Hachette. Il s'agit de La Citadelle du vertige pour lequel il obtient le prix jeunesse du ministère de la Jeunesse et des Sports. Deux ans plus tard, il obtient le Grand Prix de l'Imaginaire pour le récit Les Chasse-Marée. Il écrit ensuite de nombreux ouvrages en collaboration avec Danielle Martinigol sous les pseudonymes de Kim Aldany pour la série Kerri et Mégane (Nathan) et Dan Alpac (avec Paco Porter), série Lumina chez Flammarion. Avec Paco Porter, il est l'auteur des Brigades vertes, chez Flammarion.
-Depuis 2006, il s'essaie à l'album jeunesse en collaboration d'écriture, sous le pseudonyme commun de Noé Carlain, dans des albums illustrés par divers illustrateurs jeunesse. Leur premier ouvrage est leur plus grand succès, l'ouvrage humoristique autour des pets Prout de Mammouth : et autres petits bruits d'animaux aux éditions Sarbacane, illustré par Anna Laura Cantone, et qu'ils déclineront ensuite tous trois dans quatre autres ouvrages sur le même thème, comme Prout de pompier : et autres petits bruits de métiers ou Prout de judoka : et autres petits bruits des sports en 2012. En 2010, le Prix des Incorruptibles 2010[2]  pour l'album Ce que lisent les animaux avant de dormir, écrit sous leur pseudonyme commun de Noé Carlain, illustré par Nicolas Duffaut, leur est décerné.
+Depuis 2006, il s'essaie à l'album jeunesse en collaboration d'écriture, sous le pseudonyme commun de Noé Carlain, dans des albums illustrés par divers illustrateurs jeunesse. Leur premier ouvrage est leur plus grand succès, l'ouvrage humoristique autour des pets Prout de Mammouth : et autres petits bruits d'animaux aux éditions Sarbacane, illustré par Anna Laura Cantone, et qu'ils déclineront ensuite tous trois dans quatre autres ouvrages sur le même thème, comme Prout de pompier : et autres petits bruits de métiers ou Prout de judoka : et autres petits bruits des sports en 2012. En 2010, le Prix des Incorruptibles 2010  pour l'album Ce que lisent les animaux avant de dormir, écrit sous leur pseudonyme commun de Noé Carlain, illustré par Nicolas Duffaut, leur est décerné.
 Il dirige la collection Ukronie, aux éditions Flammarion jeunesse.
 Alain Grousset est un auteur de science-fiction dont les ouvrages sont destinés à un public de 9 ans et plus. Il est l'auteur de nombreux romans, mais aussi d'articles de science-fiction, d'anthologies, d'un documentaire (Dictionnaire de science-fiction) et de nouvelles parues en presse.
 Le Dictionnaire de la Science-Fiction est écrit sous le pseudonyme d'Alain Laurie (Livre de Poche Jeunesse), en hommage au pseudonyme d'André Laurie', en réalité Paschal Grousset, auteur de SF fin du XIXe siècle (1844-1909).
@@ -548,9 +562,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1983 : Les Mangeurs de châtaignes [3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1983 : Les Mangeurs de châtaignes 
 1991 : La Citadelle du vertige
 1993 : Les Chasse-marée
 1998 : Le Voyage oublié des maçons creusois
@@ -577,25 +593,59 @@
 2015 : Les scientikids
 2017 : Le Pirate de la Loire
 2017 : Anthologie du monstre (collaboration avec Stéphanie Nicot)
-2019 : 10 Façons d'assassiner notre planète
-Sous le pseudonyme de Noé Carlain
-Ouvrages écrits sous le pseudonyme commun de Noé Carlain avec d'autres auteurs.
+2019 : 10 Façons d'assassiner notre planète</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Grousset</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Grousset</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous le pseudonyme de Noé Carlain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ouvrages écrits sous le pseudonyme commun de Noé Carlain avec d'autres auteurs.
 Prout de mammouth : et autres petits bruits d'animaux  (ill. Anna Laura Cantone), Éditions Sarbacane, 2006
 Prout de pompier : et autres petits bruits de métiers  (ill. Anna Laura Cantone), Éditions Sarbacane, 2007
 Prouts des prénoms : choisissez le bon !  (ill. Anna Laura Cantone), Éditions Sarbacane, 2007
 La Boîte à doudous, texte Noé Carlain ; illustrations de Hervé Pinel, Hachette jeunesse, 2008
 Jus de chaussettes, Noé Carlain, ill. de Sylvie Bessard, Milan jeunesse, 2008
-Ce que lisent les animaux avant de dormir, Noé Carlain, ill. de Nicolas Duffaut, Éd. Sarbacane, 2008 Prix des Incorruptibles 2010[2]
+Ce que lisent les animaux avant de dormir, Noé Carlain, ill. de Nicolas Duffaut, Éd. Sarbacane, 2008 Prix des Incorruptibles 2010
 Mon doudou, c'est la terre, Noé Carlain, ill. de Cécile Bonbon, l'Élan vert, 2009
 Prouts célèbres : et autres petits vents de l'histoire, Noé Carlain, ill. de Anna Laura Cantone, Éd. Sarbacane, 2009
 Comment les animaux endorment leurs bébés, Noé Carlain, ill. de Clémentine Sourdais, l'Élan vert, 2009
-Le Pépé de mon pépé, Noé Carlain, ill. de Ronan Badel, l'Élan vert, 2010 Prix Chronos de Littérature 2011[4]
+Le Pépé de mon pépé, Noé Carlain, ill. de Ronan Badel, l'Élan vert, 2010 Prix Chronos de Littérature 2011
 Le Dernier Iceberg, Noé Carlain, ill. de Olivier Desvaux, Sarbacane, 2010
 C'est pour qui ce gâteau ?, Noé Carlain, ill. de Cyril Hahn, l'Élan vert, 2010
 Rends-moi mon pyjama !, Noé Carlain, ill. de Cyril Hahn, l'Élan vert, 2011
 Les Nouveaux Dinosaures, Noé Carlain, ill. de Klaas Verplancke, Sarbacane, 2011
 Tout est bon dans le dragon !, Noé Carlain, ill. de Ronan Badel, l'Élan vert, 2011
-Le Livre abominable[5], Noé Carlain, ill. de Ronan Badel, Sarbacane, 2012
+Le Livre abominable, Noé Carlain, ill. de Ronan Badel, Sarbacane, 2012
 Tout ce qu'une maman ne dira jamais, Noé Carlain, ill. de Ronan Badel, l'Élan vert, 2012
 Prout de judoka : et autres petits bruits des sports, Noé Carlain, ill. de Anna Laura Cantone, Éd. Sarbacane, 2012
 La Mémé de ma mémé, Noé Carlain, ill. de Ronan Badel, l'Élan vert, 2012
